--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H2">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I2">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J2">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>935.9179743004262</v>
+        <v>790.5248622748785</v>
       </c>
       <c r="R2">
-        <v>3743.671897201705</v>
+        <v>3162.099449099514</v>
       </c>
       <c r="S2">
-        <v>0.2872376777566292</v>
+        <v>0.6909877465852805</v>
       </c>
       <c r="T2">
-        <v>0.2099580898532539</v>
+        <v>0.6684362563191355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H3">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I3">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J3">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>29.203353830635</v>
+        <v>25.8237764113175</v>
       </c>
       <c r="R3">
-        <v>175.22012298381</v>
+        <v>154.942658467905</v>
       </c>
       <c r="S3">
-        <v>0.008962648188573143</v>
+        <v>0.02257223513429965</v>
       </c>
       <c r="T3">
-        <v>0.009826951542690398</v>
+        <v>0.03275333120845227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H4">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I4">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J4">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>16.776714083079</v>
+        <v>2.2056302610265</v>
       </c>
       <c r="R4">
-        <v>100.660284498474</v>
+        <v>13.233781566159</v>
       </c>
       <c r="S4">
-        <v>0.005148853346055835</v>
+        <v>0.001927913411200296</v>
       </c>
       <c r="T4">
-        <v>0.005645377489726633</v>
+        <v>0.002797489310321219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H5">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I5">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J5">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>18.879777002295</v>
+        <v>25.74115717305825</v>
       </c>
       <c r="R5">
-        <v>75.51910800917999</v>
+        <v>102.964628692233</v>
       </c>
       <c r="S5">
-        <v>0.0057942933586202</v>
+        <v>0.02250001870696924</v>
       </c>
       <c r="T5">
-        <v>0.004235373211226343</v>
+        <v>0.02176569461024567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H6">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I6">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J6">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>582.8693185835131</v>
+        <v>13.20258735411</v>
       </c>
       <c r="R6">
-        <v>3497.215911501078</v>
+        <v>79.21552412466001</v>
       </c>
       <c r="S6">
-        <v>0.1788853661354893</v>
+        <v>0.01154021400245301</v>
       </c>
       <c r="T6">
-        <v>0.1961359843345297</v>
+        <v>0.0167453709918342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H7">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I7">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J7">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>22.87099908584801</v>
+        <v>7.897971602598</v>
       </c>
       <c r="R7">
-        <v>137.225994515088</v>
+        <v>47.387829615588</v>
       </c>
       <c r="S7">
-        <v>0.007019218399244263</v>
+        <v>0.006903516714919082</v>
       </c>
       <c r="T7">
-        <v>0.007696109188451306</v>
+        <v>0.01001731410830648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J8">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>10.94879301015067</v>
+        <v>10.45820060930467</v>
       </c>
       <c r="R8">
-        <v>65.69275806090401</v>
+        <v>62.749203655828</v>
       </c>
       <c r="S8">
-        <v>0.003360236649824389</v>
+        <v>0.009141380388169843</v>
       </c>
       <c r="T8">
-        <v>0.003684277462982012</v>
+        <v>0.01326455522790506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J9">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>0.3416340802011111</v>
@@ -1013,10 +1013,10 @@
         <v>3.07470672181</v>
       </c>
       <c r="S9">
-        <v>0.0001048491241049611</v>
+        <v>0.000298618012538633</v>
       </c>
       <c r="T9">
-        <v>0.0001724402052040742</v>
+        <v>0.0006499623062112232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1045,40 @@
         <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J10">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>0.1962616115193333</v>
+        <v>0.02917925145755556</v>
       </c>
       <c r="R10">
-        <v>1.766354503674</v>
+        <v>0.262613263118</v>
       </c>
       <c r="S10">
-        <v>6.023362204121026E-05</v>
+        <v>2.550521327524136E-05</v>
       </c>
       <c r="T10">
-        <v>9.906328005728644E-05</v>
+        <v>5.55138221564592E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J11">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>0.22086419553</v>
+        <v>0.340541074011</v>
       </c>
       <c r="R11">
-        <v>1.32518517318</v>
+        <v>2.043246444066</v>
       </c>
       <c r="S11">
-        <v>6.778427208970251E-05</v>
+        <v>0.0002976626297033162</v>
       </c>
       <c r="T11">
-        <v>7.432097558300936E-05</v>
+        <v>0.0004319219005581253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J12">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>6.818669687275333</v>
+        <v>0.1746628268133333</v>
       </c>
       <c r="R12">
-        <v>61.368027185478</v>
+        <v>1.57196544132</v>
       </c>
       <c r="S12">
-        <v>0.002092682158205663</v>
+        <v>0.0001526705596135881</v>
       </c>
       <c r="T12">
-        <v>0.00344173157256556</v>
+        <v>0.0003322978013731441</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J13">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>0.2675553219431112</v>
+        <v>0.1044857351973333</v>
       </c>
       <c r="R13">
-        <v>2.407997897488</v>
+        <v>0.940371616776</v>
       </c>
       <c r="S13">
-        <v>8.211400085975628E-05</v>
+        <v>9.132965471389203E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001350488645399557</v>
+        <v>0.0001987851720620379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H14">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I14">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J14">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>440.7864093401341</v>
+        <v>243.6688816554605</v>
       </c>
       <c r="R14">
-        <v>1763.145637360536</v>
+        <v>974.675526621842</v>
       </c>
       <c r="S14">
-        <v>0.1352794455092937</v>
+        <v>0.2129878761352812</v>
       </c>
       <c r="T14">
-        <v>0.09888331571738986</v>
+        <v>0.2060366761477154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H15">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I15">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J15">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>13.753813719965</v>
+        <v>7.959839112660834</v>
       </c>
       <c r="R15">
-        <v>82.52288231979</v>
+        <v>47.759034675965</v>
       </c>
       <c r="S15">
-        <v>0.004221110846998095</v>
+        <v>0.00695759432007136</v>
       </c>
       <c r="T15">
-        <v>0.004628169138967266</v>
+        <v>0.01009578315233221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H16">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I16">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J16">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>7.901277424160998</v>
+        <v>0.6798564911711666</v>
       </c>
       <c r="R16">
-        <v>47.40766454496599</v>
+        <v>4.079138947027</v>
       </c>
       <c r="S16">
-        <v>0.002424939621790372</v>
+        <v>0.0005942539283127474</v>
       </c>
       <c r="T16">
-        <v>0.002658786070356474</v>
+        <v>0.000862289251381005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H17">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I17">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J17">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>8.891750497904999</v>
+        <v>7.93437282013725</v>
       </c>
       <c r="R17">
-        <v>35.56700199162</v>
+        <v>31.737491280549</v>
       </c>
       <c r="S17">
-        <v>0.002728920519042991</v>
+        <v>0.006935334557065154</v>
       </c>
       <c r="T17">
-        <v>0.001994720692683893</v>
+        <v>0.006708988821516266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H18">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I18">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J18">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>274.512169984767</v>
+        <v>4.06952374183</v>
       </c>
       <c r="R18">
-        <v>1647.073019908602</v>
+        <v>24.41714245098</v>
       </c>
       <c r="S18">
-        <v>0.08424909061212975</v>
+        <v>0.00355711904107658</v>
       </c>
       <c r="T18">
-        <v>0.09237356119998896</v>
+        <v>0.005161540157945383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H19">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I19">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J19">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>10.771484085032</v>
+        <v>2.434445770894</v>
       </c>
       <c r="R19">
-        <v>64.628904510192</v>
+        <v>14.606674625364</v>
       </c>
       <c r="S19">
-        <v>0.003305819697382933</v>
+        <v>0.002127918143615821</v>
       </c>
       <c r="T19">
-        <v>0.003624612870163915</v>
+        <v>0.003087705197453691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H20">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I20">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J20">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>508.7146271463361</v>
+        <v>0.419170563966</v>
       </c>
       <c r="R20">
-        <v>3052.287762878016</v>
+        <v>2.515023383796</v>
       </c>
       <c r="S20">
-        <v>0.1561269386364391</v>
+        <v>0.0003663916686899018</v>
       </c>
       <c r="T20">
-        <v>0.1711828723172429</v>
+        <v>0.0005316508358705881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H21">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I21">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J21">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>15.87337102536</v>
+        <v>0.01369288613</v>
       </c>
       <c r="R21">
-        <v>142.86033922824</v>
+        <v>0.12323597517</v>
       </c>
       <c r="S21">
-        <v>0.004871613065131935</v>
+        <v>1.196877793822958E-05</v>
       </c>
       <c r="T21">
-        <v>0.008012102760012003</v>
+        <v>2.605085488691103E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H22">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I22">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J22">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>9.118918627343998</v>
+        <v>0.001169520814</v>
       </c>
       <c r="R22">
-        <v>82.07026764609599</v>
+        <v>0.010525687326</v>
       </c>
       <c r="S22">
-        <v>0.002798639498432343</v>
+        <v>1.022263296722785E-06</v>
       </c>
       <c r="T22">
-        <v>0.004602784939994225</v>
+        <v>2.225025222840735E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H23">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I23">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J23">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>10.26203041512</v>
+        <v>0.013649077827</v>
       </c>
       <c r="R23">
-        <v>61.57218249071999</v>
+        <v>0.08189446696199999</v>
       </c>
       <c r="S23">
-        <v>0.00314946594300665</v>
+        <v>1.193048565671349E-05</v>
       </c>
       <c r="T23">
-        <v>0.003453181309374508</v>
+        <v>1.731167276377703E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H24">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I24">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J24">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>316.816383721968</v>
+        <v>0.00700058436</v>
       </c>
       <c r="R24">
-        <v>2851.347453497712</v>
+        <v>0.06300525924</v>
       </c>
       <c r="S24">
-        <v>0.09723245501676843</v>
+        <v>6.119121918286415E-06</v>
       </c>
       <c r="T24">
-        <v>0.159913443614491</v>
+        <v>1.331868282219761E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H25">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I25">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J25">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>12.431443878528</v>
+        <v>0.004187847048</v>
       </c>
       <c r="R25">
-        <v>111.882994906752</v>
+        <v>0.037690623432</v>
       </c>
       <c r="S25">
-        <v>0.003815269253162179</v>
+        <v>3.660543940912936E-06</v>
       </c>
       <c r="T25">
-        <v>0.006274785970223963</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J26">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>55.87392200000001</v>
-      </c>
-      <c r="N26">
-        <v>111.747844</v>
-      </c>
-      <c r="O26">
-        <v>0.5825754174893317</v>
-      </c>
-      <c r="P26">
-        <v>0.4843347495294592</v>
-      </c>
-      <c r="Q26">
-        <v>1.860899596850667</v>
-      </c>
-      <c r="R26">
-        <v>11.165397581104</v>
-      </c>
-      <c r="S26">
-        <v>0.000571118937145291</v>
-      </c>
-      <c r="T26">
-        <v>0.0006261941785905472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J27">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.743428333333333</v>
-      </c>
-      <c r="N27">
-        <v>5.230285</v>
-      </c>
-      <c r="O27">
-        <v>0.01817804179120264</v>
-      </c>
-      <c r="P27">
-        <v>0.02266897225724272</v>
-      </c>
-      <c r="Q27">
-        <v>0.05806546178444445</v>
-      </c>
-      <c r="R27">
-        <v>0.52258915606</v>
-      </c>
-      <c r="S27">
-        <v>1.782056639450367E-05</v>
-      </c>
-      <c r="T27">
-        <v>2.930861036897911E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J28">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.001563</v>
-      </c>
-      <c r="N28">
-        <v>3.004688999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.0104429036298341</v>
-      </c>
-      <c r="P28">
-        <v>0.01302284896189067</v>
-      </c>
-      <c r="Q28">
-        <v>0.03335738956933332</v>
-      </c>
-      <c r="R28">
-        <v>0.3002165061239999</v>
-      </c>
-      <c r="S28">
-        <v>1.023754151434096E-05</v>
-      </c>
-      <c r="T28">
-        <v>1.683718175605296E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J29">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.127115</v>
-      </c>
-      <c r="N29">
-        <v>2.25423</v>
-      </c>
-      <c r="O29">
-        <v>0.01175198497222887</v>
-      </c>
-      <c r="P29">
-        <v>0.009770228071977768</v>
-      </c>
-      <c r="Q29">
-        <v>0.03753894077999999</v>
-      </c>
-      <c r="R29">
-        <v>0.22523364468</v>
-      </c>
-      <c r="S29">
-        <v>1.152087946932586E-05</v>
-      </c>
-      <c r="T29">
-        <v>1.26318831100148E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J30">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>34.797061</v>
-      </c>
-      <c r="N30">
-        <v>104.391183</v>
-      </c>
-      <c r="O30">
-        <v>0.3628152743506486</v>
-      </c>
-      <c r="P30">
-        <v>0.4524496908538918</v>
-      </c>
-      <c r="Q30">
-        <v>1.158927715625333</v>
-      </c>
-      <c r="R30">
-        <v>10.430349440628</v>
-      </c>
-      <c r="S30">
-        <v>0.0003556804280555042</v>
-      </c>
-      <c r="T30">
-        <v>0.0005849701323166511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J31">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.365389333333334</v>
-      </c>
-      <c r="N31">
-        <v>4.096168</v>
-      </c>
-      <c r="O31">
-        <v>0.014236377766754</v>
-      </c>
-      <c r="P31">
-        <v>0.01775351032553778</v>
-      </c>
-      <c r="Q31">
-        <v>0.04547474687644445</v>
-      </c>
-      <c r="R31">
-        <v>0.409272721888</v>
-      </c>
-      <c r="S31">
-        <v>1.395641610486643E-05</v>
-      </c>
-      <c r="T31">
-        <v>2.295343215864536E-05</v>
+        <v>7.967421528249189E-06</v>
       </c>
     </row>
   </sheetData>
